--- a/output/time dependant variables/df_time_dependent_variable_values8.xlsx
+++ b/output/time dependant variables/df_time_dependent_variable_values8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>TimeStep</t>
   </si>
@@ -28,67 +28,112 @@
     <t>net1_emissions</t>
   </si>
   <si>
+    <t>net1_inv_cost</t>
+  </si>
+  <si>
+    <t>Q_from_net1</t>
+  </si>
+  <si>
+    <t>P_net1_bat1</t>
+  </si>
+  <si>
+    <t>P_to_net1</t>
+  </si>
+  <si>
+    <t>P_from_net1</t>
+  </si>
+  <si>
+    <t>net1_sell_electric</t>
+  </si>
+  <si>
+    <t>P_net1_demand1</t>
+  </si>
+  <si>
+    <t>Q_net1_demand1</t>
+  </si>
+  <si>
     <t>Q_to_net1</t>
   </si>
   <si>
-    <t>net1_sell_electric</t>
-  </si>
-  <si>
     <t>net1_sell_thermal</t>
   </si>
   <si>
     <t>net1_buy_electric</t>
   </si>
   <si>
-    <t>P_net1_demand1</t>
-  </si>
-  <si>
-    <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>P_to_net1</t>
-  </si>
-  <si>
-    <t>Q_net1_demand1</t>
-  </si>
-  <si>
-    <t>net1_inv_cost</t>
-  </si>
-  <si>
-    <t>P_from_net1</t>
-  </si>
-  <si>
     <t>net1_buy_thermal</t>
   </si>
   <si>
+    <t>P_from_pv1</t>
+  </si>
+  <si>
+    <t>P_pv1_demand1</t>
+  </si>
+  <si>
+    <t>P_pv1_net1</t>
+  </si>
+  <si>
     <t>pv1_op_cost</t>
   </si>
   <si>
-    <t>P_pv1_demand1</t>
-  </si>
-  <si>
-    <t>P_pv1_net1</t>
-  </si>
-  <si>
     <t>pv1_inv_cost</t>
   </si>
   <si>
-    <t>P_from_pv1</t>
-  </si>
-  <si>
     <t>pv1_emissions</t>
   </si>
   <si>
+    <t>P_pv1_bat1</t>
+  </si>
+  <si>
+    <t>bat1_K_ch</t>
+  </si>
+  <si>
+    <t>bat1_SOC</t>
+  </si>
+  <si>
+    <t>bat1_inv_cost</t>
+  </si>
+  <si>
+    <t>bat1_cumulated_aging</t>
+  </si>
+  <si>
+    <t>bat1_K_dis</t>
+  </si>
+  <si>
+    <t>bat1_SOC_max</t>
+  </si>
+  <si>
+    <t>P_to_bat1</t>
+  </si>
+  <si>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>bat1_op_cost</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
+  </si>
+  <si>
+    <t>bat1_emissions</t>
+  </si>
+  <si>
+    <t>bat1_integer</t>
+  </si>
+  <si>
     <t>total_buy</t>
   </si>
   <si>
+    <t>total_operation_cost</t>
+  </si>
+  <si>
     <t>total_sell</t>
   </si>
   <si>
     <t>total_emissions</t>
-  </si>
-  <si>
-    <t>total_operation_cost</t>
   </si>
 </sst>
 </file>
@@ -446,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y10"/>
+  <dimension ref="A1:AN7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,10 +573,55 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:40">
       <c r="A2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -540,43 +630,43 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>328.0151567708909</v>
+        <v>129.6946811358158</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>302.7630670692649</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>178.2691069407016</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>356.5382138814032</v>
+        <v>101.8420447128433</v>
       </c>
       <c r="J2">
-        <v>534.8073208221048</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>101.8420447128433</v>
       </c>
       <c r="L2">
-        <v>534.8073208221048</v>
+        <v>302.7630670692649</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>356.5382138814032</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>192.5306354959577</v>
+        <v>46.84734056790791</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>93.85655079147213</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -588,27 +678,72 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>370.7997424366593</v>
+        <v>0</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>328.0151567708909</v>
+        <v>0</v>
       </c>
       <c r="Y2">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z2">
+        <v>0.5</v>
+      </c>
+      <c r="AA2">
+        <v>0.1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>100</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>1</v>
+      </c>
+      <c r="AH2">
+        <v>100</v>
+      </c>
+      <c r="AI2">
+        <v>0.2777777777777777</v>
+      </c>
+      <c r="AJ2">
+        <v>-0</v>
+      </c>
+      <c r="AK2">
+        <v>140.70389135938</v>
+      </c>
+      <c r="AL2">
+        <v>2</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>129.9724589135936</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:40">
       <c r="A3">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -617,75 +752,120 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>409.0191214445272</v>
+        <v>271.2199693623909</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>442.2445152952025</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>200.0637007065622</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>444.5860015701382</v>
+        <v>294.7880101634683</v>
       </c>
       <c r="J3">
-        <v>666.8790023552073</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>294.7880101634683</v>
       </c>
       <c r="L3">
-        <v>666.8790023552073</v>
+        <v>442.2445152952025</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>444.5860015701382</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>233.4076508243225</v>
+        <v>135.6024846751954</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>168.0529158121769</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.0416667</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0416667</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>433.4713515308847</v>
+        <v>0.02083335</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>409.0191214445272</v>
+        <v>1.110223024625157E-16</v>
       </c>
       <c r="Y3">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0.1</v>
+      </c>
+      <c r="AB3">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="AC3">
+        <v>0.9</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>-0</v>
+      </c>
+      <c r="AK3">
+        <v>303.6554004873724</v>
+      </c>
+      <c r="AL3">
+        <v>2</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>271.2408027123909</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:40">
       <c r="A4">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -694,75 +874,120 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>474.5167167585106</v>
+        <v>310.3506115153838</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>523.5444754489954</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>247.5739391783534</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>515.7790399549028</v>
+        <v>329.8213167993302</v>
       </c>
       <c r="J4">
-        <v>773.6685599323542</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>329.8213167993302</v>
       </c>
       <c r="L4">
-        <v>773.6685599323542</v>
+        <v>523.5444754489954</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>515.7790399549028</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>309.4674239729417</v>
+        <v>164.9106583996651</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>209.4177901795982</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.2083335</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.2083335</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>557.0413631512951</v>
+        <v>0.10416675</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>474.5167167585106</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0.3</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0.1000031666666667</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>0.8999968333333334</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>19</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>1</v>
+      </c>
+      <c r="AH4">
+        <v>19</v>
+      </c>
+      <c r="AI4">
+        <v>0.05277777777777776</v>
+      </c>
+      <c r="AJ4">
+        <v>-0</v>
+      </c>
+      <c r="AK4">
+        <v>374.3284485792633</v>
+      </c>
+      <c r="AL4">
+        <v>2</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>310.5075560431616</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:40">
       <c r="A5">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -771,75 +996,120 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>476.1527932442893</v>
+        <v>334.7754401601173</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>546.2480005958435</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>222.5496751033091</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>517.557383961184</v>
+        <v>363.7070000305623</v>
       </c>
       <c r="J5">
-        <v>776.336075941776</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>363.7070000305623</v>
       </c>
       <c r="L5">
-        <v>776.336075941776</v>
+        <v>546.2480005958435</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>517.557383961184</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>302.7710696172927</v>
+        <v>156.3940100131418</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>202.1117602204621</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.4583337</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.4583337</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>525.3207447206017</v>
+        <v>0.22916685</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>476.1527932442893</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>1</v>
+        <v>0.3</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0.1000031666666667</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>0.8999968333333334</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>1</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>-0</v>
+      </c>
+      <c r="AK5">
+        <v>358.5057702336039</v>
+      </c>
+      <c r="AL5">
+        <v>2</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>335.0046070101174</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:40">
       <c r="A6">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -848,75 +1118,120 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>389.6407044018665</v>
+        <v>294.7574424769401</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>572.6860481558806</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>194.8203522009333</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>423.5225047846375</v>
+        <v>280.9156980705871</v>
       </c>
       <c r="J6">
-        <v>635.2837571769562</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>280.9156980705871</v>
       </c>
       <c r="L6">
-        <v>635.2837571769562</v>
+        <v>572.6860481558806</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>423.5225047846375</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>196.9379647248564</v>
+        <v>137.6486920545877</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>171.8058144467642</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.8750006999999999</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.8750006999999999</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>391.7583169257897</v>
+        <v>0.4375003499999999</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>389.6407044018665</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>1</v>
+        <v>0.5</v>
+      </c>
+      <c r="Z6">
+        <v>0.5</v>
+      </c>
+      <c r="AA6">
+        <v>0.1</v>
+      </c>
+      <c r="AB6">
+        <v>1</v>
+      </c>
+      <c r="AC6">
+        <v>0.9000000000000001</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>100</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>1</v>
+      </c>
+      <c r="AH6">
+        <v>100</v>
+      </c>
+      <c r="AI6">
+        <v>0.2777777777777777</v>
+      </c>
+      <c r="AJ6">
+        <v>-0</v>
+      </c>
+      <c r="AK6">
+        <v>309.4545065013518</v>
+      </c>
+      <c r="AL6">
+        <v>2</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>295.4727206047179</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:40">
       <c r="A7">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -925,301 +1240,115 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>303.8557606642344</v>
+        <v>366.2404045511084</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>615.5441387072419</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>145.3223203176773</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>330.2780007219939</v>
+        <v>390.1960915381613</v>
       </c>
       <c r="J7">
-        <v>495.4170010829909</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>390.1960915381613</v>
       </c>
       <c r="L7">
-        <v>495.4170010829909</v>
+        <v>615.5441387072419</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>330.2780007219939</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>173.3959503790468</v>
+        <v>179.4902021075542</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>203.1295657733899</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1.1666676</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1.1666676</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>318.7182706967241</v>
+        <v>0.5833337999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>303.8557606642344</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8">
-        <v>47</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>277.6058223813055</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>120.6981836440459</v>
-      </c>
-      <c r="I8">
-        <v>301.7454591101147</v>
-      </c>
-      <c r="J8">
-        <v>452.6181886651721</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>452.6181886651721</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>301.7454591101147</v>
-      </c>
-      <c r="O8">
-        <v>135.7854565995516</v>
-      </c>
-      <c r="P8">
-        <v>1</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>256.4836402435975</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>277.6058223813055</v>
-      </c>
-      <c r="Y8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9">
-        <v>48</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>235.5041208139488</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>107.5127508063679</v>
-      </c>
-      <c r="I9">
-        <v>255.9827400151617</v>
-      </c>
-      <c r="J9">
-        <v>383.9741100227426</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>383.9741100227426</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>255.9827400151617</v>
-      </c>
-      <c r="O9">
-        <v>115.1922330068228</v>
-      </c>
-      <c r="P9">
-        <v>1</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>222.7049838131907</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>235.5041208139488</v>
-      </c>
-      <c r="Y9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10">
-        <v>49</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>177.4234055688266</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>92.56873334025734</v>
-      </c>
-      <c r="I10">
-        <v>192.8515277922028</v>
-      </c>
-      <c r="J10">
-        <v>289.2772916883042</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>289.2772916883042</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>192.8515277922028</v>
-      </c>
-      <c r="O10">
-        <v>101.2470520909065</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>193.8157854311638</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>177.4234055688266</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
+        <v>0.3</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0.1000031666666667</v>
+      </c>
+      <c r="AB7">
+        <v>1</v>
+      </c>
+      <c r="AC7">
+        <v>0.8999968333333334</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>19.00000000000001</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>1</v>
+      </c>
+      <c r="AH7">
+        <v>19.00000000000001</v>
+      </c>
+      <c r="AI7">
+        <v>0.05277777777777779</v>
+      </c>
+      <c r="AJ7">
+        <v>-0</v>
+      </c>
+      <c r="AK7">
+        <v>382.6197678809441</v>
+      </c>
+      <c r="AL7">
+        <v>2</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>366.8765161288862</v>
       </c>
     </row>
   </sheetData>

--- a/output/time dependant variables/df_time_dependent_variable_values8.xlsx
+++ b/output/time dependant variables/df_time_dependent_variable_values8.xlsx
@@ -19,118 +19,118 @@
     <t>TimeStep</t>
   </si>
   <si>
+    <t>demand1_op_cost</t>
+  </si>
+  <si>
     <t>demand1_inv_cost</t>
   </si>
   <si>
-    <t>demand1_op_cost</t>
+    <t>P_net1_bat1</t>
+  </si>
+  <si>
+    <t>P_net1_demand1</t>
   </si>
   <si>
     <t>net1_emissions</t>
   </si>
   <si>
+    <t>P_to_net1</t>
+  </si>
+  <si>
+    <t>net1_buy_thermal</t>
+  </si>
+  <si>
+    <t>Q_from_net1</t>
+  </si>
+  <si>
+    <t>net1_sell_electric</t>
+  </si>
+  <si>
+    <t>net1_buy_electric</t>
+  </si>
+  <si>
     <t>net1_inv_cost</t>
   </si>
   <si>
-    <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>P_net1_bat1</t>
-  </si>
-  <si>
-    <t>P_to_net1</t>
+    <t>net1_sell_thermal</t>
+  </si>
+  <si>
+    <t>Q_to_net1</t>
   </si>
   <si>
     <t>P_from_net1</t>
   </si>
   <si>
-    <t>net1_sell_electric</t>
-  </si>
-  <si>
-    <t>P_net1_demand1</t>
-  </si>
-  <si>
     <t>Q_net1_demand1</t>
   </si>
   <si>
-    <t>Q_to_net1</t>
-  </si>
-  <si>
-    <t>net1_sell_thermal</t>
-  </si>
-  <si>
-    <t>net1_buy_electric</t>
-  </si>
-  <si>
-    <t>net1_buy_thermal</t>
+    <t>pv1_inv_cost</t>
+  </si>
+  <si>
+    <t>P_pv1_demand1</t>
+  </si>
+  <si>
+    <t>pv1_op_cost</t>
+  </si>
+  <si>
+    <t>P_pv1_net1</t>
+  </si>
+  <si>
+    <t>pv1_emissions</t>
+  </si>
+  <si>
+    <t>P_pv1_bat1</t>
   </si>
   <si>
     <t>P_from_pv1</t>
   </si>
   <si>
-    <t>P_pv1_demand1</t>
-  </si>
-  <si>
-    <t>P_pv1_net1</t>
-  </si>
-  <si>
-    <t>pv1_op_cost</t>
-  </si>
-  <si>
-    <t>pv1_inv_cost</t>
-  </si>
-  <si>
-    <t>pv1_emissions</t>
-  </si>
-  <si>
-    <t>P_pv1_bat1</t>
+    <t>bat1_SOC</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
+  </si>
+  <si>
+    <t>bat1_cumulated_aging</t>
+  </si>
+  <si>
+    <t>bat1_op_cost</t>
+  </si>
+  <si>
+    <t>P_to_bat1</t>
+  </si>
+  <si>
+    <t>bat1_integer</t>
+  </si>
+  <si>
+    <t>bat1_inv_cost</t>
+  </si>
+  <si>
+    <t>bat1_K_dis</t>
+  </si>
+  <si>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
+    <t>bat1_SOC_max</t>
+  </si>
+  <si>
+    <t>bat1_emissions</t>
   </si>
   <si>
     <t>bat1_K_ch</t>
   </si>
   <si>
-    <t>bat1_SOC</t>
-  </si>
-  <si>
-    <t>bat1_inv_cost</t>
-  </si>
-  <si>
-    <t>bat1_cumulated_aging</t>
-  </si>
-  <si>
-    <t>bat1_K_dis</t>
-  </si>
-  <si>
-    <t>bat1_SOC_max</t>
-  </si>
-  <si>
-    <t>P_to_bat1</t>
-  </si>
-  <si>
-    <t>P_from_bat1</t>
-  </si>
-  <si>
-    <t>P_bat1_net1</t>
-  </si>
-  <si>
-    <t>bat1_op_cost</t>
-  </si>
-  <si>
-    <t>P_bat1_demand1</t>
-  </si>
-  <si>
-    <t>bat1_emissions</t>
-  </si>
-  <si>
-    <t>bat1_integer</t>
+    <t>total_sell</t>
   </si>
   <si>
     <t>total_buy</t>
   </si>
   <si>
     <t>total_operation_cost</t>
-  </si>
-  <si>
-    <t>total_sell</t>
   </si>
   <si>
     <t>total_emissions</t>
@@ -621,7 +621,7 @@
     </row>
     <row r="2" spans="1:40">
       <c r="A2">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -630,31 +630,31 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>129.6946811358158</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>108.1255268683671</v>
       </c>
       <c r="F2">
-        <v>302.7630670692649</v>
+        <v>135.4754847188977</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>121.7534332179948</v>
       </c>
       <c r="I2">
-        <v>101.8420447128433</v>
+        <v>312.1882903025506</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>101.8420447128433</v>
+        <v>48.6564870907652</v>
       </c>
       <c r="L2">
-        <v>302.7630670692649</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -663,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>46.84734056790791</v>
+        <v>108.1255268683671</v>
       </c>
       <c r="P2">
-        <v>93.85655079147213</v>
+        <v>312.1882903025506</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -675,10 +675,10 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
         <v>0</v>
@@ -690,60 +690,60 @@
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.9998677451519948</v>
       </c>
       <c r="Y2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="AA2">
-        <v>0.1</v>
+        <v>0.0001322548480054775</v>
       </c>
       <c r="AB2">
         <v>1</v>
       </c>
       <c r="AC2">
-        <v>0.9000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
         <v>100</v>
       </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>1</v>
-      </c>
       <c r="AH2">
-        <v>100</v>
+        <v>0.9998677451519948</v>
       </c>
       <c r="AI2">
         <v>0.2777777777777777</v>
       </c>
       <c r="AJ2">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>140.70389135938</v>
+        <v>0</v>
       </c>
       <c r="AL2">
+        <v>170.40992030876</v>
+      </c>
+      <c r="AM2">
         <v>2</v>
       </c>
-      <c r="AM2">
-        <v>0</v>
-      </c>
       <c r="AN2">
-        <v>129.9724589135936</v>
+        <v>135.7532624966755</v>
       </c>
     </row>
     <row r="3" spans="1:40">
       <c r="A3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -752,31 +752,31 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>271.2199693623909</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>165.1488800499209</v>
       </c>
       <c r="F3">
-        <v>442.2445152952025</v>
+        <v>151.9369696459272</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>99.08932802995255</v>
       </c>
       <c r="I3">
-        <v>294.7880101634683</v>
+        <v>247.7233200748814</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>294.7880101634683</v>
+        <v>79.27146242396202</v>
       </c>
       <c r="L3">
-        <v>442.2445152952025</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -785,87 +785,87 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>135.6024846751954</v>
+        <v>165.1488800499209</v>
       </c>
       <c r="P3">
-        <v>168.0529158121769</v>
+        <v>247.7233200748814</v>
       </c>
       <c r="Q3">
-        <v>0.0416667</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.0416667</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.02083335</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>1.110223024625157E-16</v>
+        <v>0.9998677451519946</v>
       </c>
       <c r="Y3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>2.109423746787797E-14</v>
       </c>
       <c r="AA3">
-        <v>0.1</v>
+        <v>0.0001322548480054775</v>
       </c>
       <c r="AB3">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC3">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>1</v>
+        <v>2.109423746787797E-14</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>0.9998677451519945</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>5.859510407743881E-17</v>
       </c>
       <c r="AJ3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>303.6554004873724</v>
+        <v>0</v>
       </c>
       <c r="AL3">
+        <v>178.3607904539146</v>
+      </c>
+      <c r="AM3">
         <v>2</v>
       </c>
-      <c r="AM3">
-        <v>0</v>
-      </c>
       <c r="AN3">
-        <v>271.2408027123909</v>
+        <v>151.9369696459272</v>
       </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -874,31 +874,31 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>310.3506115153838</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>130.2933375268219</v>
       </c>
       <c r="F4">
-        <v>523.5444754489954</v>
+        <v>119.8698705246761</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>64.49520207577683</v>
       </c>
       <c r="I4">
-        <v>329.8213167993302</v>
+        <v>195.4400062902328</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>329.8213167993302</v>
+        <v>59.93493526233807</v>
       </c>
       <c r="L4">
-        <v>523.5444754489954</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -907,87 +907,87 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>164.9106583996651</v>
+        <v>130.2933375268219</v>
       </c>
       <c r="P4">
-        <v>209.4177901795982</v>
+        <v>195.4400062902328</v>
       </c>
       <c r="Q4">
-        <v>0.2083335</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.2083335</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0.10416675</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>0.9998677451519946</v>
       </c>
       <c r="Y4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.1000031666666667</v>
+        <v>0.0001322548480054775</v>
       </c>
       <c r="AB4">
         <v>1</v>
       </c>
       <c r="AC4">
-        <v>0.8999968333333334</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE4">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>19</v>
+        <v>0.9998677451519945</v>
       </c>
       <c r="AI4">
-        <v>0.05277777777777776</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>374.3284485792633</v>
+        <v>0</v>
       </c>
       <c r="AL4">
+        <v>124.4301373381149</v>
+      </c>
+      <c r="AM4">
         <v>2</v>
       </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
       <c r="AN4">
-        <v>310.5075560431616</v>
+        <v>119.8698705246761</v>
       </c>
     </row>
     <row r="5" spans="1:40">
       <c r="A5">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -996,31 +996,31 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>334.7754401601173</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>37.19001977671621</v>
       </c>
       <c r="F5">
-        <v>546.2480005958435</v>
+        <v>58.15029507877713</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>49.76517867175474</v>
       </c>
       <c r="I5">
-        <v>363.7070000305623</v>
+        <v>155.5161833492336</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>363.7070000305623</v>
+        <v>17.85120949282378</v>
       </c>
       <c r="L5">
-        <v>546.2480005958435</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1029,87 +1029,87 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>156.3940100131418</v>
+        <v>37.19001977671621</v>
       </c>
       <c r="P5">
-        <v>202.1117602204621</v>
+        <v>155.5161833492336</v>
       </c>
       <c r="Q5">
-        <v>0.4583337</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>0.4583337</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.22916685</v>
+        <v>0</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>66.48743578943949</v>
       </c>
       <c r="AA5">
-        <v>0.1000031666666667</v>
+        <v>0.0001433360873037174</v>
       </c>
       <c r="AB5">
         <v>1</v>
       </c>
       <c r="AC5">
-        <v>0.8999968333333334</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>66.48743578943949</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.9998566639126962</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.1846873216373319</v>
       </c>
       <c r="AJ5">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>358.5057702336039</v>
+        <v>0</v>
       </c>
       <c r="AL5">
+        <v>67.61638816457852</v>
+      </c>
+      <c r="AM5">
         <v>2</v>
       </c>
-      <c r="AM5">
-        <v>0</v>
-      </c>
       <c r="AN5">
-        <v>335.0046070101174</v>
+        <v>58.33498240041447</v>
       </c>
     </row>
     <row r="6" spans="1:40">
       <c r="A6">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1118,31 +1118,31 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>294.7574424769401</v>
+        <v>73.667830099054</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>97.78916096758275</v>
       </c>
       <c r="F6">
-        <v>572.6860481558806</v>
+        <v>131.2200129456464</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>46.93879726443972</v>
       </c>
       <c r="I6">
-        <v>280.9156980705871</v>
+        <v>146.6837414513741</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>280.9156980705871</v>
+        <v>73.72650615865381</v>
       </c>
       <c r="L6">
-        <v>572.6860481558806</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -1151,87 +1151,87 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>137.6486920545877</v>
+        <v>171.4569910666368</v>
       </c>
       <c r="P6">
-        <v>171.8058144467642</v>
+        <v>146.6837414513741</v>
       </c>
       <c r="Q6">
-        <v>0.8750006999999999</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.8750006999999999</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.4375003499999999</v>
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>0.9998443859410131</v>
       </c>
       <c r="Y6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.1</v>
+        <v>0.0001556140589868931</v>
       </c>
       <c r="AB6">
         <v>1</v>
       </c>
       <c r="AC6">
-        <v>0.9000000000000001</v>
+        <v>73.667830099054</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE6">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>100</v>
+        <v>0.9998443859410131</v>
       </c>
       <c r="AI6">
-        <v>0.2777777777777777</v>
+        <v>0.2046328613862611</v>
       </c>
       <c r="AJ6">
-        <v>-0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>309.4545065013518</v>
+        <v>0</v>
       </c>
       <c r="AL6">
+        <v>120.6653034230935</v>
+      </c>
+      <c r="AM6">
         <v>2</v>
       </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
       <c r="AN6">
-        <v>295.4727206047179</v>
+        <v>131.4246458070326</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="A7">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1240,31 +1240,31 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>366.2404045511084</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>28.300518870357</v>
       </c>
       <c r="F7">
-        <v>615.5441387072419</v>
+        <v>49.97115535991109</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>55.44965528783064</v>
       </c>
       <c r="I7">
-        <v>390.1960915381613</v>
+        <v>142.1786033021299</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>390.1960915381613</v>
+        <v>13.86725424647493</v>
       </c>
       <c r="L7">
-        <v>615.5441387072419</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -1273,82 +1273,82 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>179.4902021075542</v>
+        <v>28.300518870357</v>
       </c>
       <c r="P7">
-        <v>203.1295657733899</v>
+        <v>142.1786033021299</v>
       </c>
       <c r="Q7">
-        <v>1.1666676</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>1.1666676</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7">
         <v>0</v>
       </c>
       <c r="V7">
-        <v>0.5833337999999999</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Y7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>66.48521666439625</v>
       </c>
       <c r="AA7">
-        <v>0.1000031666666667</v>
+        <v>0.0001666949284309591</v>
       </c>
       <c r="AB7">
         <v>1</v>
       </c>
       <c r="AC7">
-        <v>0.8999968333333334</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AE7">
-        <v>19.00000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>1</v>
+        <v>66.48521666439625</v>
       </c>
       <c r="AH7">
-        <v>19.00000000000001</v>
+        <v>0.9998333050715691</v>
       </c>
       <c r="AI7">
-        <v>0.05277777777777779</v>
+        <v>0.1846811574011007</v>
       </c>
       <c r="AJ7">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK7">
-        <v>382.6197678809441</v>
+        <v>0</v>
       </c>
       <c r="AL7">
+        <v>69.31690953430558</v>
+      </c>
+      <c r="AM7">
         <v>2</v>
       </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
       <c r="AN7">
-        <v>366.8765161288862</v>
+        <v>50.15583651731219</v>
       </c>
     </row>
   </sheetData>

--- a/output/time dependant variables/df_time_dependent_variable_values8.xlsx
+++ b/output/time dependant variables/df_time_dependent_variable_values8.xlsx
@@ -25,112 +25,112 @@
     <t>demand1_inv_cost</t>
   </si>
   <si>
+    <t>net1_buy_electric</t>
+  </si>
+  <si>
+    <t>P_from_net1</t>
+  </si>
+  <si>
+    <t>net1_sell_electric</t>
+  </si>
+  <si>
+    <t>Q_from_net1</t>
+  </si>
+  <si>
+    <t>net1_buy_thermal</t>
+  </si>
+  <si>
+    <t>P_net1_demand1</t>
+  </si>
+  <si>
+    <t>net1_sell_thermal</t>
+  </si>
+  <si>
+    <t>Q_to_net1</t>
+  </si>
+  <si>
+    <t>P_to_net1</t>
+  </si>
+  <si>
+    <t>net1_emissions</t>
+  </si>
+  <si>
+    <t>net1_inv_cost</t>
+  </si>
+  <si>
+    <t>Q_net1_demand1</t>
+  </si>
+  <si>
     <t>P_net1_bat1</t>
   </si>
   <si>
-    <t>P_net1_demand1</t>
-  </si>
-  <si>
-    <t>net1_emissions</t>
-  </si>
-  <si>
-    <t>P_to_net1</t>
-  </si>
-  <si>
-    <t>net1_buy_thermal</t>
-  </si>
-  <si>
-    <t>Q_from_net1</t>
-  </si>
-  <si>
-    <t>net1_sell_electric</t>
-  </si>
-  <si>
-    <t>net1_buy_electric</t>
-  </si>
-  <si>
-    <t>net1_inv_cost</t>
-  </si>
-  <si>
-    <t>net1_sell_thermal</t>
-  </si>
-  <si>
-    <t>Q_to_net1</t>
-  </si>
-  <si>
-    <t>P_from_net1</t>
-  </si>
-  <si>
-    <t>Q_net1_demand1</t>
+    <t>pv1_op_cost</t>
+  </si>
+  <si>
+    <t>P_from_pv1</t>
+  </si>
+  <si>
+    <t>P_pv1_net1</t>
   </si>
   <si>
     <t>pv1_inv_cost</t>
   </si>
   <si>
+    <t>pv1_emissions</t>
+  </si>
+  <si>
     <t>P_pv1_demand1</t>
   </si>
   <si>
-    <t>pv1_op_cost</t>
-  </si>
-  <si>
-    <t>P_pv1_net1</t>
-  </si>
-  <si>
-    <t>pv1_emissions</t>
-  </si>
-  <si>
     <t>P_pv1_bat1</t>
   </si>
   <si>
-    <t>P_from_pv1</t>
+    <t>P_from_bat1</t>
+  </si>
+  <si>
+    <t>bat1_emissions</t>
+  </si>
+  <si>
+    <t>bat1_cumulated_aging</t>
+  </si>
+  <si>
+    <t>bat1_K_dis</t>
+  </si>
+  <si>
+    <t>P_bat1_net1</t>
+  </si>
+  <si>
+    <t>bat1_K_ch</t>
+  </si>
+  <si>
+    <t>bat1_SOC_max</t>
+  </si>
+  <si>
+    <t>bat1_inv_cost</t>
+  </si>
+  <si>
+    <t>P_bat1_demand1</t>
   </si>
   <si>
     <t>bat1_SOC</t>
   </si>
   <si>
-    <t>P_bat1_net1</t>
-  </si>
-  <si>
-    <t>P_bat1_demand1</t>
-  </si>
-  <si>
-    <t>bat1_cumulated_aging</t>
-  </si>
-  <si>
     <t>bat1_op_cost</t>
   </si>
   <si>
+    <t>bat1_integer</t>
+  </si>
+  <si>
     <t>P_to_bat1</t>
   </si>
   <si>
-    <t>bat1_integer</t>
-  </si>
-  <si>
-    <t>bat1_inv_cost</t>
-  </si>
-  <si>
-    <t>bat1_K_dis</t>
-  </si>
-  <si>
-    <t>P_from_bat1</t>
-  </si>
-  <si>
-    <t>bat1_SOC_max</t>
-  </si>
-  <si>
-    <t>bat1_emissions</t>
-  </si>
-  <si>
-    <t>bat1_K_ch</t>
+    <t>total_operation_cost</t>
+  </si>
+  <si>
+    <t>total_buy</t>
   </si>
   <si>
     <t>total_sell</t>
-  </si>
-  <si>
-    <t>total_buy</t>
-  </si>
-  <si>
-    <t>total_operation_cost</t>
   </si>
   <si>
     <t>total_emissions</t>
@@ -491,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN7"/>
+  <dimension ref="A1:AN17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,7 +621,7 @@
     </row>
     <row r="2" spans="1:40">
       <c r="A2">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -630,120 +630,120 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>111.7514914392133</v>
       </c>
       <c r="E2">
-        <v>108.1255268683671</v>
+        <v>253.9806623618483</v>
       </c>
       <c r="F2">
-        <v>135.4754847188977</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>531.2209937427724</v>
       </c>
       <c r="H2">
-        <v>121.7534332179948</v>
+        <v>169.9907179976872</v>
       </c>
       <c r="I2">
-        <v>312.1882903025506</v>
+        <v>253.9806623618483</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>48.6564870907652</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>269.7222094209004</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>108.1255268683671</v>
+        <v>531.2209937427724</v>
       </c>
       <c r="P2">
-        <v>312.1882903025506</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.1666668</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>0.0833334</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.1666668</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>0.9998677451519948</v>
+        <v>100</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>0.2777777777777777</v>
       </c>
       <c r="Z2">
+        <v>0.0002023301420221021</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0.9997976698579779</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
         <v>100</v>
       </c>
-      <c r="AA2">
-        <v>0.0001322548480054775</v>
-      </c>
-      <c r="AB2">
-        <v>1</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
+      <c r="AG2">
+        <v>0.9997976698579779</v>
+      </c>
+      <c r="AH2">
+        <v>1</v>
+      </c>
+      <c r="AI2">
         <v>-0</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>1</v>
-      </c>
-      <c r="AG2">
-        <v>100</v>
-      </c>
-      <c r="AH2">
-        <v>0.9998677451519948</v>
-      </c>
-      <c r="AI2">
-        <v>0.2777777777777777</v>
-      </c>
       <c r="AJ2">
         <v>0</v>
       </c>
       <c r="AK2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL2">
-        <v>170.40992030876</v>
+        <v>281.7422094369005</v>
       </c>
       <c r="AM2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>135.7532624966755</v>
+        <v>270.0833205986782</v>
       </c>
     </row>
     <row r="3" spans="1:40">
       <c r="A3">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -752,52 +752,52 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>145.0287176224476</v>
       </c>
       <c r="E3">
-        <v>165.1488800499209</v>
+        <v>290.0574352448953</v>
       </c>
       <c r="F3">
-        <v>151.9369696459272</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>534.8073208221048</v>
       </c>
       <c r="H3">
-        <v>99.08932802995255</v>
+        <v>192.5306354959577</v>
       </c>
       <c r="I3">
-        <v>247.7233200748814</v>
+        <v>290.0574352448953</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>79.27146242396202</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>290.7859207344465</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>165.1488800499209</v>
+        <v>534.8073208221048</v>
       </c>
       <c r="P3">
-        <v>247.7233200748814</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -812,60 +812,60 @@
         <v>0</v>
       </c>
       <c r="X3">
-        <v>0.9998677451519946</v>
+        <v>66.48077863650789</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>0.1846688295458552</v>
       </c>
       <c r="Z3">
-        <v>2.109423746787797E-14</v>
+        <v>0.0002134102717948534</v>
       </c>
       <c r="AA3">
-        <v>0.0001322548480054775</v>
+        <v>1</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3">
         <v>0</v>
       </c>
       <c r="AD3">
+        <v>0.9997865897282051</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>66.48077863650789</v>
+      </c>
+      <c r="AG3">
+        <v>0.3000000000000002</v>
+      </c>
+      <c r="AH3">
+        <v>1</v>
+      </c>
+      <c r="AI3">
         <v>-0</v>
       </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>2.109423746787797E-14</v>
-      </c>
-      <c r="AH3">
-        <v>0.9998677451519945</v>
-      </c>
-      <c r="AI3">
-        <v>5.859510407743881E-17</v>
-      </c>
       <c r="AJ3">
         <v>0</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL3">
-        <v>178.3607904539146</v>
+        <v>337.5593531184053</v>
       </c>
       <c r="AM3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>151.9369696459272</v>
+        <v>290.9705895639923</v>
       </c>
     </row>
     <row r="4" spans="1:40">
       <c r="A4">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -874,52 +874,52 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>200.0637007065622</v>
       </c>
       <c r="E4">
-        <v>130.2933375268219</v>
+        <v>444.5860015701382</v>
       </c>
       <c r="F4">
-        <v>119.8698705246761</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>666.8790023552073</v>
       </c>
       <c r="H4">
-        <v>64.49520207577683</v>
+        <v>233.4076508243225</v>
       </c>
       <c r="I4">
-        <v>195.4400062902328</v>
+        <v>444.5860015701382</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>59.93493526233807</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>409.0191214445272</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>130.2933375268219</v>
+        <v>666.8790023552073</v>
       </c>
       <c r="P4">
-        <v>195.4400062902328</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -934,60 +934,60 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.9998677451519946</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.0002134102717948534</v>
       </c>
       <c r="AA4">
-        <v>0.0001322548480054775</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
       </c>
       <c r="AD4">
+        <v>0.9997865897282051</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0.3</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
         <v>-0</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>1</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0.9998677451519945</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
       <c r="AJ4">
         <v>0</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL4">
-        <v>124.4301373381149</v>
+        <v>433.4713515308847</v>
       </c>
       <c r="AM4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>119.8698705246761</v>
+        <v>409.0191214445272</v>
       </c>
     </row>
     <row r="5" spans="1:40">
       <c r="A5">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -996,52 +996,52 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>247.5739391783534</v>
       </c>
       <c r="E5">
-        <v>37.19001977671621</v>
+        <v>515.7790399549028</v>
       </c>
       <c r="F5">
-        <v>58.15029507877713</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>773.6685599323542</v>
       </c>
       <c r="H5">
-        <v>49.76517867175474</v>
+        <v>309.4674239729417</v>
       </c>
       <c r="I5">
-        <v>155.5161833492336</v>
+        <v>515.7790399549028</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>17.85120949282378</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>474.5167167585106</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>37.19001977671621</v>
+        <v>773.6685599323542</v>
       </c>
       <c r="P5">
-        <v>155.5161833492336</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1056,60 +1056,60 @@
         <v>0</v>
       </c>
       <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0.0002134102717948534</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0.9997865897282051</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
         <v>0.3</v>
       </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>66.48743578943949</v>
-      </c>
-      <c r="AA5">
-        <v>0.0001433360873037174</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
+      <c r="AH5">
+        <v>1</v>
+      </c>
+      <c r="AI5">
         <v>-0</v>
       </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>1</v>
-      </c>
-      <c r="AG5">
-        <v>66.48743578943949</v>
-      </c>
-      <c r="AH5">
-        <v>0.9998566639126962</v>
-      </c>
-      <c r="AI5">
-        <v>0.1846873216373319</v>
-      </c>
       <c r="AJ5">
         <v>0</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL5">
-        <v>67.61638816457852</v>
+        <v>557.0413631512951</v>
       </c>
       <c r="AM5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>58.33498240041447</v>
+        <v>474.5167167585106</v>
       </c>
     </row>
     <row r="6" spans="1:40">
       <c r="A6">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1118,52 +1118,52 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>73.667830099054</v>
+        <v>222.5496751033091</v>
       </c>
       <c r="E6">
-        <v>97.78916096758275</v>
+        <v>517.557383961184</v>
       </c>
       <c r="F6">
-        <v>131.2200129456464</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>776.336075941776</v>
       </c>
       <c r="H6">
-        <v>46.93879726443972</v>
+        <v>302.7710696172927</v>
       </c>
       <c r="I6">
-        <v>146.6837414513741</v>
+        <v>517.557383961184</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>73.72650615865381</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>476.1527932442893</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>171.4569910666368</v>
+        <v>776.336075941776</v>
       </c>
       <c r="P6">
-        <v>146.6837414513741</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -1178,60 +1178,60 @@
         <v>0</v>
       </c>
       <c r="X6">
-        <v>0.9998443859410131</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>0.0002134102717948534</v>
       </c>
       <c r="AA6">
-        <v>0.0001556140589868931</v>
+        <v>1</v>
       </c>
       <c r="AB6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>73.667830099054</v>
+        <v>0</v>
       </c>
       <c r="AD6">
+        <v>0.9997865897282051</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0.3</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
         <v>-0</v>
       </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>-0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0.9998443859410131</v>
-      </c>
-      <c r="AI6">
-        <v>0.2046328613862611</v>
-      </c>
       <c r="AJ6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL6">
-        <v>120.6653034230935</v>
+        <v>525.3207447206017</v>
       </c>
       <c r="AM6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN6">
-        <v>131.4246458070326</v>
+        <v>476.1527932442893</v>
       </c>
     </row>
     <row r="7" spans="1:40">
       <c r="A7">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1240,52 +1240,52 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>194.8203522009333</v>
       </c>
       <c r="E7">
-        <v>28.300518870357</v>
+        <v>423.5225047846375</v>
       </c>
       <c r="F7">
-        <v>49.97115535991109</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>635.2837571769562</v>
       </c>
       <c r="H7">
-        <v>55.44965528783064</v>
+        <v>196.9379647248564</v>
       </c>
       <c r="I7">
-        <v>142.1786033021299</v>
+        <v>423.5225047846375</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>13.86725424647493</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>389.6407044018665</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>28.300518870357</v>
+        <v>635.2837571769562</v>
       </c>
       <c r="P7">
-        <v>142.1786033021299</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <v>0</v>
@@ -1300,55 +1300,1275 @@
         <v>0</v>
       </c>
       <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0.0002134102717948534</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0.9997865897282051</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
         <v>0.3</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>66.48521666439625</v>
-      </c>
-      <c r="AA7">
-        <v>0.0001666949284309591</v>
-      </c>
-      <c r="AB7">
-        <v>1</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
+      <c r="AH7">
+        <v>1</v>
+      </c>
+      <c r="AI7">
         <v>-0</v>
       </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>1</v>
-      </c>
-      <c r="AG7">
-        <v>66.48521666439625</v>
-      </c>
-      <c r="AH7">
-        <v>0.9998333050715691</v>
-      </c>
-      <c r="AI7">
-        <v>0.1846811574011007</v>
-      </c>
       <c r="AJ7">
         <v>0</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL7">
-        <v>69.31690953430558</v>
+        <v>391.7583169257897</v>
       </c>
       <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>389.6407044018665</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40">
+      <c r="A8">
+        <v>46</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>145.3223203176773</v>
+      </c>
+      <c r="E8">
+        <v>330.2780007219939</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>495.4170010829909</v>
+      </c>
+      <c r="H8">
+        <v>173.3959503790468</v>
+      </c>
+      <c r="I8">
+        <v>330.2780007219939</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>303.8557606642344</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>495.4170010829909</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0.0002134102717948534</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0.9997865897282051</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0.3</v>
+      </c>
+      <c r="AH8">
+        <v>1</v>
+      </c>
+      <c r="AI8">
+        <v>-0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
         <v>2</v>
       </c>
-      <c r="AN7">
-        <v>50.15583651731219</v>
+      <c r="AL8">
+        <v>318.7182706967241</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>303.8557606642344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40">
+      <c r="A9">
+        <v>47</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>150.162365243451</v>
+      </c>
+      <c r="E9">
+        <v>375.4059131086276</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>452.6181886651721</v>
+      </c>
+      <c r="H9">
+        <v>135.7854565995516</v>
+      </c>
+      <c r="I9">
+        <v>301.7454591101147</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>318.8556766204728</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>452.6181886651721</v>
+      </c>
+      <c r="P9">
+        <v>73.66045399851285</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0.2046123722180912</v>
+      </c>
+      <c r="Z9">
+        <v>0.0002256870141279389</v>
+      </c>
+      <c r="AA9">
+        <v>-0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AH9">
+        <v>1</v>
+      </c>
+      <c r="AI9">
+        <v>-0</v>
+      </c>
+      <c r="AJ9">
+        <v>73.66045399851285</v>
+      </c>
+      <c r="AK9">
+        <v>2</v>
+      </c>
+      <c r="AL9">
+        <v>285.9478218430027</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>319.0602889926909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40">
+      <c r="A10">
+        <v>48</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>107.5127508063679</v>
+      </c>
+      <c r="E10">
+        <v>255.9827400151617</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>383.9741100227426</v>
+      </c>
+      <c r="H10">
+        <v>115.1922330068228</v>
+      </c>
+      <c r="I10">
+        <v>255.9827400151617</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>235.5041208139488</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>383.9741100227426</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0.0002256870141279389</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AH10">
+        <v>1</v>
+      </c>
+      <c r="AI10">
+        <v>-0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>2</v>
+      </c>
+      <c r="AL10">
+        <v>222.7049838131907</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>235.5041208139488</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40">
+      <c r="A11">
+        <v>49</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>92.56873334025734</v>
+      </c>
+      <c r="E11">
+        <v>192.8515277922028</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>289.2772916883042</v>
+      </c>
+      <c r="H11">
+        <v>101.2470520909065</v>
+      </c>
+      <c r="I11">
+        <v>192.8515277922028</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>177.4234055688266</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>289.2772916883042</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0.0002256870141279389</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AH11">
+        <v>1</v>
+      </c>
+      <c r="AI11">
+        <v>-0</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>2</v>
+      </c>
+      <c r="AL11">
+        <v>193.8157854311638</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>177.4234055688266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>66.62862210197807</v>
+      </c>
+      <c r="E12">
+        <v>138.809629379121</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>208.2144440686815</v>
+      </c>
+      <c r="H12">
+        <v>70.7929109833517</v>
+      </c>
+      <c r="I12">
+        <v>138.809629379121</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>127.7048590287913</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>208.2144440686815</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0.0002256870141279389</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0.999774312985872</v>
+      </c>
+      <c r="AH12">
+        <v>1</v>
+      </c>
+      <c r="AI12">
+        <v>-0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>2</v>
+      </c>
+      <c r="AL12">
+        <v>137.4215330853298</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>127.7048590287913</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40">
+      <c r="A13">
+        <v>51</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>22.34385001836218</v>
+      </c>
+      <c r="E13">
+        <v>44.68770003672435</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>166.7493896555733</v>
+      </c>
+      <c r="H13">
+        <v>55.02729858633919</v>
+      </c>
+      <c r="I13">
+        <v>44.68770003672435</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>65.04496553790322</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>166.7493896555733</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>66.47855973365785</v>
+      </c>
+      <c r="Y13">
+        <v>0.1846626659268273</v>
+      </c>
+      <c r="Z13">
+        <v>0.0002367667740835485</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0.9997632332259164</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>66.47855973365785</v>
+      </c>
+      <c r="AG13">
+        <v>0.3</v>
+      </c>
+      <c r="AH13">
+        <v>1</v>
+      </c>
+      <c r="AI13">
+        <v>-0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>2</v>
+      </c>
+      <c r="AL13">
+        <v>77.37114860470136</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>65.22962820383005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40">
+      <c r="A14">
+        <v>52</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>71.80828563588864</v>
+      </c>
+      <c r="E14">
+        <v>175.1421600875333</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>152.2262469376147</v>
+      </c>
+      <c r="H14">
+        <v>47.19013655066057</v>
+      </c>
+      <c r="I14">
+        <v>101.4841646250765</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>134.6139089140462</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>152.2262469376147</v>
+      </c>
+      <c r="P14">
+        <v>73.65799546245678</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0.2046055429512688</v>
+      </c>
+      <c r="Z14">
+        <v>0.0002490431066606246</v>
+      </c>
+      <c r="AA14">
+        <v>-0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>0.9997509568933394</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0.9997509568933395</v>
+      </c>
+      <c r="AH14">
+        <v>1</v>
+      </c>
+      <c r="AI14">
+        <v>-0</v>
+      </c>
+      <c r="AJ14">
+        <v>73.65799546245678</v>
+      </c>
+      <c r="AK14">
+        <v>2</v>
+      </c>
+      <c r="AL14">
+        <v>118.9984221865492</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>134.8185144569975</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40">
+      <c r="A15">
+        <v>53</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>43.94683227076205</v>
+      </c>
+      <c r="E15">
+        <v>95.53659189296098</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>143.3048878394415</v>
+      </c>
+      <c r="H15">
+        <v>47.29061298701569</v>
+      </c>
+      <c r="I15">
+        <v>95.53659189296098</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>87.89366454152412</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>143.3048878394415</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0.0002490431066606246</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0.9997509568933394</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0.9997509568933395</v>
+      </c>
+      <c r="AH15">
+        <v>1</v>
+      </c>
+      <c r="AI15">
+        <v>-0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>2</v>
+      </c>
+      <c r="AL15">
+        <v>91.23744525777775</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>87.89366454152412</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40">
+      <c r="A16">
+        <v>54</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>44.77218148345451</v>
+      </c>
+      <c r="E16">
+        <v>95.25996060309471</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>142.8899409046421</v>
+      </c>
+      <c r="H16">
+        <v>55.72707695281041</v>
+      </c>
+      <c r="I16">
+        <v>95.25996060309471</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>87.63916375484713</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>142.8899409046421</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0.0002490431066606246</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0.9997509568933394</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0.9997509568933395</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>-0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16">
+        <v>2</v>
+      </c>
+      <c r="AL16">
+        <v>100.4992584362649</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>87.63916375484713</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40">
+      <c r="A17">
+        <v>55</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>16.576127352897</v>
+      </c>
+      <c r="E17">
+        <v>34.53359865186874</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>151.514909335104</v>
+      </c>
+      <c r="H17">
+        <v>46.96962189388224</v>
+      </c>
+      <c r="I17">
+        <v>34.53359865186874</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>55.70239348547145</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>151.514909335104</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>66.47634090486726</v>
+      </c>
+      <c r="Y17">
+        <v>0.1846565025135201</v>
+      </c>
+      <c r="Z17">
+        <v>0.0002601224968114358</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0.9997398775031886</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>66.47634090486726</v>
+      </c>
+      <c r="AG17">
+        <v>0.3</v>
+      </c>
+      <c r="AH17">
+        <v>1</v>
+      </c>
+      <c r="AI17">
+        <v>-0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>2</v>
+      </c>
+      <c r="AL17">
+        <v>63.54574924677924</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>55.88704998798497</v>
       </c>
     </row>
   </sheetData>
